--- a/data/trans_orig/Q4501_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q4501_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>87026</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71531</v>
+        <v>69069</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105804</v>
+        <v>104514</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1836865403909967</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1509815385295704</v>
+        <v>0.1457831223708086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2233200661646474</v>
+        <v>0.2205980980100066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -764,19 +764,19 @@
         <v>95000</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80197</v>
+        <v>78948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113110</v>
+        <v>112641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3110160477343691</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2625560329601438</v>
+        <v>0.2584665294646899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3703085117037641</v>
+        <v>0.3687727795781187</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -785,19 +785,19 @@
         <v>182026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159243</v>
+        <v>157695</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>206977</v>
+        <v>207525</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2335985530479302</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2043599743757014</v>
+        <v>0.2023735786907017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2656187909459094</v>
+        <v>0.2663218130112801</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>88368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72046</v>
+        <v>72348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105948</v>
+        <v>108541</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1865186982824647</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1520676350289241</v>
+        <v>0.1527047065655139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2236247533620663</v>
+        <v>0.2290979579381933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -835,19 +835,19 @@
         <v>83090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69259</v>
+        <v>67649</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98934</v>
+        <v>99198</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2720266449216683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2267460689974252</v>
+        <v>0.2214736052190263</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3238974058149158</v>
+        <v>0.3247597605153483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>166</v>
@@ -856,19 +856,19 @@
         <v>171459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149463</v>
+        <v>150564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>196374</v>
+        <v>196254</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2200370382491391</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1918099354743119</v>
+        <v>0.1932223435857026</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2520118897092635</v>
+        <v>0.2518580316715571</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>135256</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116126</v>
+        <v>115525</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>155871</v>
+        <v>158506</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2854850410402919</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.245106831967418</v>
+        <v>0.2438393502395977</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3289975070104084</v>
+        <v>0.3345589625140253</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>83</v>
@@ -906,19 +906,19 @@
         <v>85118</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>70504</v>
+        <v>69396</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>101670</v>
+        <v>100318</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2786663661854001</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2308213014704013</v>
+        <v>0.2271949652985787</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3328531960160794</v>
+        <v>0.3284280573403991</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>215</v>
@@ -927,19 +927,19 @@
         <v>220375</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>197462</v>
+        <v>195045</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>246308</v>
+        <v>243428</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.282812182307374</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2534081133415436</v>
+        <v>0.2503064751243174</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3160929647560354</v>
+        <v>0.3123966187015331</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>57384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44487</v>
+        <v>43556</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73240</v>
+        <v>73541</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.121119553642205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09389934656845654</v>
+        <v>0.09193363925057785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.154587314237244</v>
+        <v>0.15522351835098</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -977,19 +977,19 @@
         <v>20575</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13255</v>
+        <v>13521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30883</v>
+        <v>32519</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06735989668686096</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04339458461348851</v>
+        <v>0.04426524267463297</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1011082870529374</v>
+        <v>0.1064621136790724</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -998,19 +998,19 @@
         <v>77959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62549</v>
+        <v>62804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95070</v>
+        <v>95786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.100046255438423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08027126651229083</v>
+        <v>0.08059807047135717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1220054094056931</v>
+        <v>0.1229251765691374</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>105742</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88234</v>
+        <v>88284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125337</v>
+        <v>124768</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2231901666440416</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1862361289918018</v>
+        <v>0.1863402448867343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2645480927828524</v>
+        <v>0.2633488941213127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1048,19 +1048,19 @@
         <v>21666</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13983</v>
+        <v>13852</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31706</v>
+        <v>31365</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07093104447170157</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04577963796639425</v>
+        <v>0.04535118078150614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1038012553971114</v>
+        <v>0.1026846846697223</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>124</v>
@@ -1069,19 +1069,19 @@
         <v>127408</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>107173</v>
+        <v>107191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>148181</v>
+        <v>150117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1635059709571337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1375380373981866</v>
+        <v>0.1375603151116787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1901649605042004</v>
+        <v>0.19264943140189</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>60510</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46232</v>
+        <v>46547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77639</v>
+        <v>76799</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1653087781524019</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1263009667701991</v>
+        <v>0.1271623223222831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2121039531685633</v>
+        <v>0.2098086423191615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -1194,19 +1194,19 @@
         <v>134636</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116998</v>
+        <v>116599</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153183</v>
+        <v>154232</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3631762968833133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.315597112932306</v>
+        <v>0.3145220601178572</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4132049682115273</v>
+        <v>0.4160345513641031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>185</v>
@@ -1215,19 +1215,19 @@
         <v>195147</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171571</v>
+        <v>172938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>222334</v>
+        <v>221165</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2648703038384874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.232871524247883</v>
+        <v>0.2347258972357269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3017707681495601</v>
+        <v>0.3001846021944456</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>55833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43184</v>
+        <v>42915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>70104</v>
+        <v>70180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.15253041780257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1179755849194921</v>
+        <v>0.117238667804048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1915168927843741</v>
+        <v>0.1917265093089557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>78</v>
@@ -1265,19 +1265,19 @@
         <v>78183</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62810</v>
+        <v>62364</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94566</v>
+        <v>94011</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2108968752323149</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1694262091390078</v>
+        <v>0.1682231137038958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2550879899390824</v>
+        <v>0.2535906833163762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>135</v>
@@ -1286,19 +1286,19 @@
         <v>134017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>113791</v>
+        <v>112272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>156136</v>
+        <v>156758</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1818988234300751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1544464642977334</v>
+        <v>0.1523858143012017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2119217566402408</v>
+        <v>0.2127657662569705</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>102006</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>85163</v>
+        <v>85300</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>119937</v>
+        <v>120073</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2786719668886254</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2326568602864384</v>
+        <v>0.2330311875597174</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3276560118274348</v>
+        <v>0.3280285463551854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -1336,19 +1336,19 @@
         <v>86874</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>71398</v>
+        <v>70219</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>104421</v>
+        <v>103471</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2343388201352174</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1925929102922228</v>
+        <v>0.18941233604426</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2816705861133342</v>
+        <v>0.2791096347069607</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>181</v>
@@ -1357,19 +1357,19 @@
         <v>188880</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>165802</v>
+        <v>163993</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>212454</v>
+        <v>213850</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2563647395198068</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.225041087100578</v>
+        <v>0.2225850015133116</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.288360756982964</v>
+        <v>0.2902551071795829</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>50631</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37555</v>
+        <v>38655</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66020</v>
+        <v>65551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1383186858385679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1025968176432713</v>
+        <v>0.1056022189654491</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1803613843742318</v>
+        <v>0.1790787943944074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1407,19 +1407,19 @@
         <v>23110</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13829</v>
+        <v>14162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33472</v>
+        <v>34621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06233839020774555</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03730187946141646</v>
+        <v>0.0382013351700755</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09029014187956184</v>
+        <v>0.09338915608054639</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -1428,19 +1428,19 @@
         <v>73741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58398</v>
+        <v>58439</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89636</v>
+        <v>93115</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1000874783942977</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07926232953830241</v>
+        <v>0.07931791456537707</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1216611023715637</v>
+        <v>0.1263842752542712</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>97064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81834</v>
+        <v>80541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115896</v>
+        <v>114653</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2651701513178348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.223563791366421</v>
+        <v>0.2200301993080379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3166169853893627</v>
+        <v>0.3132224654356037</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -1478,19 +1478,19 @@
         <v>47915</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35480</v>
+        <v>35706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61622</v>
+        <v>63071</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1292496175414089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09570545144561904</v>
+        <v>0.09631448944464074</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1662218314092621</v>
+        <v>0.1701328652370894</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -1499,19 +1499,19 @@
         <v>144979</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122947</v>
+        <v>123126</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167116</v>
+        <v>168447</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1967786548173331</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1668747943660898</v>
+        <v>0.1671171046318682</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2268248604473162</v>
+        <v>0.2286310745261347</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>70135</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57175</v>
+        <v>56203</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87567</v>
+        <v>88318</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1293078856446104</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.105413954270387</v>
+        <v>0.1036213979896225</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1614463987316882</v>
+        <v>0.1628305793228371</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1624,19 +1624,19 @@
         <v>49516</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36773</v>
+        <v>39076</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62389</v>
+        <v>62308</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2951226011755658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2191714126126784</v>
+        <v>0.2328980169456109</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3718466921542498</v>
+        <v>0.3713655576750909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -1645,19 +1645,19 @@
         <v>119651</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101042</v>
+        <v>99695</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140291</v>
+        <v>140052</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1684825480932182</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1422780513962432</v>
+        <v>0.1403811036634336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1975447260256377</v>
+        <v>0.1972092962526565</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>73693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58093</v>
+        <v>59451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90295</v>
+        <v>93806</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1358671699653912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1071060829364287</v>
+        <v>0.1096095646967215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.166476068913992</v>
+        <v>0.1729495423666498</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -1695,19 +1695,19 @@
         <v>41152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29929</v>
+        <v>30406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52623</v>
+        <v>54117</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2452695468486925</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1783796828218095</v>
+        <v>0.1812248770896725</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3136389955124747</v>
+        <v>0.3225458538917763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -1716,19 +1716,19 @@
         <v>114845</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94446</v>
+        <v>94802</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136082</v>
+        <v>135864</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1617140990015455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1329905896216011</v>
+        <v>0.1334913035433445</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.19161932941042</v>
+        <v>0.1913110302592301</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>112948</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>94978</v>
+        <v>95630</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133679</v>
+        <v>132622</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2082413605663168</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1751104803621633</v>
+        <v>0.1763119851403589</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.246462520458946</v>
+        <v>0.2445140511217277</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1766,19 +1766,19 @@
         <v>40106</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29579</v>
+        <v>30123</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51448</v>
+        <v>53217</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2390352472568648</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1762926337492253</v>
+        <v>0.1795337556869289</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.30663534455122</v>
+        <v>0.3171775112801336</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>150</v>
@@ -1787,19 +1787,19 @@
         <v>153054</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>133091</v>
+        <v>131543</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>176809</v>
+        <v>175769</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2155165901062287</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1874071475864527</v>
+        <v>0.1852272710154694</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2489674300493364</v>
+        <v>0.247502198174312</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>92093</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75826</v>
+        <v>75107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>111851</v>
+        <v>111250</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1697908726640588</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1398009046770246</v>
+        <v>0.1384749939659385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2062199674684451</v>
+        <v>0.2051111027971022</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1837,19 +1837,19 @@
         <v>10677</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5228</v>
+        <v>4938</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19102</v>
+        <v>19100</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06363623618558784</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0311590114164564</v>
+        <v>0.02942911050168196</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1138514403195428</v>
+        <v>0.1138396819324933</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1858,19 +1858,19 @@
         <v>102770</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>84642</v>
+        <v>82854</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>124953</v>
+        <v>120520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1447112406296968</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1191849869348395</v>
+        <v>0.1166675836171307</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1759480156395344</v>
+        <v>0.1697054445795061</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>193520</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>170734</v>
+        <v>171700</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>215268</v>
+        <v>214373</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3567927111596229</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3147816016201461</v>
+        <v>0.3165632402129375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3968880835238519</v>
+        <v>0.3952389450868243</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1908,19 +1908,19 @@
         <v>26331</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17677</v>
+        <v>18462</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36194</v>
+        <v>36566</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.156936368533289</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1053578402175067</v>
+        <v>0.1100348946923844</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2157202371493461</v>
+        <v>0.2179389646788255</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>220</v>
@@ -1929,19 +1929,19 @@
         <v>219852</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>193669</v>
+        <v>196557</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>243480</v>
+        <v>244424</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3095755221693108</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2727080765418397</v>
+        <v>0.276774755669819</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3428466727079702</v>
+        <v>0.3441759128046233</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>140734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>120480</v>
+        <v>120944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>165298</v>
+        <v>165971</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1138237273656783</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09744260837313382</v>
+        <v>0.09781795626299422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1336907865117098</v>
+        <v>0.1342352623325608</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>180</v>
@@ -2054,19 +2054,19 @@
         <v>188112</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>164500</v>
+        <v>165861</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>212915</v>
+        <v>213819</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2633571619363766</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.230299905093444</v>
+        <v>0.2322058039330465</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2980818582347464</v>
+        <v>0.2993471492827329</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>317</v>
@@ -2075,19 +2075,19 @@
         <v>328846</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>297692</v>
+        <v>293948</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>362697</v>
+        <v>361872</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1685780332959472</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1526074569661858</v>
+        <v>0.1506878713938727</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.185931152756146</v>
+        <v>0.1855080688500674</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>138791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>116784</v>
+        <v>117173</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161904</v>
+        <v>161231</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1122525230007188</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09445347076226086</v>
+        <v>0.09476825536194608</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1309456231941379</v>
+        <v>0.1304014483141651</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>155</v>
@@ -2125,19 +2125,19 @@
         <v>161483</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>139257</v>
+        <v>138278</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>188159</v>
+        <v>186842</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2260758175005383</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1949602093610563</v>
+        <v>0.1935894188770879</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2634222743614631</v>
+        <v>0.2615795307508805</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>294</v>
@@ -2146,19 +2146,19 @@
         <v>300274</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>271136</v>
+        <v>268279</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>335938</v>
+        <v>333138</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1539309309562829</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1389939020080493</v>
+        <v>0.1375290653664805</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1722137504743649</v>
+        <v>0.1707783418619928</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>261658</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>233651</v>
+        <v>235285</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>289278</v>
+        <v>289076</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2116255572930684</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1889735974176263</v>
+        <v>0.1902956134346406</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2339641419713962</v>
+        <v>0.23380063398068</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>146</v>
@@ -2196,19 +2196,19 @@
         <v>147868</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>126603</v>
+        <v>126025</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>171957</v>
+        <v>170066</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2070158733394795</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1772440954203006</v>
+        <v>0.1764352851257948</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2407395796235396</v>
+        <v>0.2380924742329348</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>408</v>
@@ -2217,19 +2217,19 @@
         <v>409527</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>374135</v>
+        <v>376037</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>446758</v>
+        <v>445056</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2099376401649607</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1917946034329323</v>
+        <v>0.1927697398773043</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2290235908065505</v>
+        <v>0.2281512953458534</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>188244</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>162524</v>
+        <v>164841</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>214562</v>
+        <v>217919</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1522493526274042</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1314469005965499</v>
+        <v>0.133321556235808</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1735351849346168</v>
+        <v>0.176250125603203</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>71</v>
@@ -2267,19 +2267,19 @@
         <v>72272</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56770</v>
+        <v>57560</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89480</v>
+        <v>89870</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1011809606006747</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07947824125884242</v>
+        <v>0.08058426011371123</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1252715722721635</v>
+        <v>0.1258186027860092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>255</v>
@@ -2288,19 +2288,19 @@
         <v>260516</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>234376</v>
+        <v>231979</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>293610</v>
+        <v>293358</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1335497596672999</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1201491071993045</v>
+        <v>0.1189203058889414</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1505149788292748</v>
+        <v>0.1503853767208488</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>506993</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>473755</v>
+        <v>471411</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>540271</v>
+        <v>539358</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4100488397131304</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3831671127968793</v>
+        <v>0.381270564246974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4369636440053877</v>
+        <v>0.4362253275559689</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>142</v>
@@ -2338,19 +2338,19 @@
         <v>144550</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>123279</v>
+        <v>124196</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>167385</v>
+        <v>166090</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2023701866229308</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1725907762588652</v>
+        <v>0.173874951370652</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2343388877675359</v>
+        <v>0.2325261049557127</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>642</v>
@@ -2359,19 +2359,19 @@
         <v>651543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>609252</v>
+        <v>608989</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>691113</v>
+        <v>695156</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3340036359155094</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3123239755189862</v>
+        <v>0.3121892509696665</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3542884039352214</v>
+        <v>0.3563613503351869</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>47232</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>35449</v>
+        <v>35818</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61963</v>
+        <v>61941</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.134733535113068</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1011232137841035</v>
+        <v>0.1021745746597716</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1767571036848444</v>
+        <v>0.1766942072620054</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>153</v>
@@ -2484,19 +2484,19 @@
         <v>158798</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>138240</v>
+        <v>137670</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>180304</v>
+        <v>180289</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2792038624158215</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2430589227533553</v>
+        <v>0.2420570676181101</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3170161542006346</v>
+        <v>0.3169907662737809</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>199</v>
@@ -2505,19 +2505,19 @@
         <v>206029</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>181651</v>
+        <v>180806</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>234334</v>
+        <v>229873</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.22411363852078</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1975951058636326</v>
+        <v>0.196676623637118</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.254903231568632</v>
+        <v>0.2500503457619869</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>32562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23205</v>
+        <v>22615</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>45553</v>
+        <v>44915</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09288820372806537</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06619596529884951</v>
+        <v>0.06451284443726199</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1299465888369092</v>
+        <v>0.1281255651964508</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>106</v>
@@ -2555,19 +2555,19 @@
         <v>110476</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>92480</v>
+        <v>92850</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>130728</v>
+        <v>130886</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1942429303045641</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1626021527978825</v>
+        <v>0.1632516385774387</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2298503034296856</v>
+        <v>0.2301283629266121</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>138</v>
@@ -2576,19 +2576,19 @@
         <v>143038</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>121421</v>
+        <v>123389</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>166054</v>
+        <v>165989</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1555937856382073</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1320790283706199</v>
+        <v>0.134219235821415</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.180629555205349</v>
+        <v>0.1805587392260785</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>65596</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>50156</v>
+        <v>51093</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80197</v>
+        <v>80135</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1871193811979258</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.143075800460209</v>
+        <v>0.1457474651467801</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2287725628916713</v>
+        <v>0.2285948045383761</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>105</v>
@@ -2626,19 +2626,19 @@
         <v>108821</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>91470</v>
+        <v>90880</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>130106</v>
+        <v>129577</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1913328349586844</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.160826355201568</v>
+        <v>0.1597882054668651</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2287569703499334</v>
+        <v>0.2278263696557133</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>168</v>
@@ -2647,19 +2647,19 @@
         <v>174417</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>150823</v>
+        <v>152306</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>200112</v>
+        <v>199046</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1897261374770267</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1640616514475535</v>
+        <v>0.165674738046086</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.217676523663384</v>
+        <v>0.216517859759835</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>42453</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30464</v>
+        <v>30456</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>55942</v>
+        <v>56625</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1211015047542448</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08690124874639034</v>
+        <v>0.08688009758538939</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1595801913829905</v>
+        <v>0.1615282627232735</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>45</v>
@@ -2697,19 +2697,19 @@
         <v>49705</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>37495</v>
+        <v>37508</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>64400</v>
+        <v>64987</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08739349296694313</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06592459693843213</v>
+        <v>0.06594777352642363</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1132297453249131</v>
+        <v>0.1142627117038185</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>86</v>
@@ -2718,19 +2718,19 @@
         <v>92158</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>75359</v>
+        <v>75579</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>111240</v>
+        <v>114417</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.100247218372629</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08197339826952665</v>
+        <v>0.0822134585334392</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1210044354325541</v>
+        <v>0.1244600205262561</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>162713</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>144890</v>
+        <v>144320</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>181138</v>
+        <v>181447</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.464157375206696</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4133147521683543</v>
+        <v>0.4116902220041263</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5167167312477048</v>
+        <v>0.5176001949316051</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>130</v>
@@ -2768,19 +2768,19 @@
         <v>140952</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>121218</v>
+        <v>119987</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>161768</v>
+        <v>162729</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2478268793539869</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2131292730833934</v>
+        <v>0.2109659872680494</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.284426640478517</v>
+        <v>0.2861156250139628</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>288</v>
@@ -2789,19 +2789,19 @@
         <v>303665</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>273515</v>
+        <v>275218</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>332340</v>
+        <v>334178</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3303192199913571</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2975226998563705</v>
+        <v>0.2993753276080052</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.361511524525528</v>
+        <v>0.363510884129798</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>35615</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>25066</v>
+        <v>26362</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>47626</v>
+        <v>48547</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.119432896633495</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08405897019133381</v>
+        <v>0.08840464291520456</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1597097428752714</v>
+        <v>0.1628004266784114</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>302</v>
@@ -2914,19 +2914,19 @@
         <v>307313</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>277720</v>
+        <v>272845</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>337357</v>
+        <v>335799</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2464861781422204</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2227499855989629</v>
+        <v>0.218839868318293</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2705832633799424</v>
+        <v>0.2693335763370881</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>336</v>
@@ -2935,19 +2935,19 @@
         <v>342928</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>311678</v>
+        <v>314110</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>375780</v>
+        <v>378472</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2219632660559031</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2017363815295312</v>
+        <v>0.2033103581653131</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2432269578835285</v>
+        <v>0.2449691872267946</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>35827</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>26503</v>
+        <v>25698</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>47307</v>
+        <v>47412</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1201423813412021</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08887766203014852</v>
+        <v>0.08617578201888493</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1586399396252255</v>
+        <v>0.1589940893525658</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>214</v>
@@ -2985,19 +2985,19 @@
         <v>212967</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>188566</v>
+        <v>190149</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>240167</v>
+        <v>242553</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1708137563829273</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1512426012602094</v>
+        <v>0.1525124703511142</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1926303432884333</v>
+        <v>0.1945442480150306</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>252</v>
@@ -3006,19 +3006,19 @@
         <v>248793</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>221346</v>
+        <v>221257</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>279692</v>
+        <v>278513</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1610335314199404</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1432678357001983</v>
+        <v>0.1432105709945261</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1810329478007832</v>
+        <v>0.1802700350713949</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>86665</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>73262</v>
+        <v>72327</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>103966</v>
+        <v>102874</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2906259732679586</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2456789046023856</v>
+        <v>0.2425460365875524</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3486432719025502</v>
+        <v>0.3449804400890353</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>257</v>
@@ -3056,19 +3056,19 @@
         <v>257587</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>230356</v>
+        <v>228050</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>285360</v>
+        <v>285607</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2066026485001964</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1847608122317483</v>
+        <v>0.1829119945669702</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2288783948219418</v>
+        <v>0.2290763881399892</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>349</v>
@@ -3077,19 +3077,19 @@
         <v>344252</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>313636</v>
+        <v>313323</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>376367</v>
+        <v>377022</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2228202273144707</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2030038088918673</v>
+        <v>0.2028006811419374</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2436068832968214</v>
+        <v>0.2440304936573749</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>46798</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>35310</v>
+        <v>35898</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>60698</v>
+        <v>59841</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1569360586970695</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1184116571284225</v>
+        <v>0.1203826785876051</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2035458551694999</v>
+        <v>0.2006730952715831</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>95</v>
@@ -3127,19 +3127,19 @@
         <v>93684</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>76134</v>
+        <v>78267</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>113737</v>
+        <v>114304</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07514125795050586</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06106495382448945</v>
+        <v>0.0627752442530195</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09122507658724233</v>
+        <v>0.09167996871195595</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>142</v>
@@ -3148,19 +3148,19 @@
         <v>140483</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>120327</v>
+        <v>120315</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>165732</v>
+        <v>166324</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0909287030602024</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0778829604507941</v>
+        <v>0.07787488984900337</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1072714056308159</v>
+        <v>0.1076546365146745</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>93296</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>77378</v>
+        <v>77761</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>108722</v>
+        <v>108319</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3128626900602748</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2594832504404328</v>
+        <v>0.2607663618814513</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3645936196428997</v>
+        <v>0.3632401296488825</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>368</v>
@@ -3198,19 +3198,19 @@
         <v>375225</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>345031</v>
+        <v>344111</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>410464</v>
+        <v>406627</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3009561590241499</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2767383622436257</v>
+        <v>0.2760004933553326</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3292198267358313</v>
+        <v>0.3261422806452018</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>463</v>
@@ -3219,19 +3219,19 @@
         <v>468521</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>430360</v>
+        <v>431561</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>506048</v>
+        <v>501874</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3032542721494835</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.27855395806861</v>
+        <v>0.2793315373055563</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3275437871798161</v>
+        <v>0.324841892653821</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>441252</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>402540</v>
+        <v>403777</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>480608</v>
+        <v>479324</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1350475121494112</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1231995326173582</v>
+        <v>0.123578038542099</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1470926113483935</v>
+        <v>0.1466994354217182</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>904</v>
@@ -3344,19 +3344,19 @@
         <v>933376</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>881783</v>
+        <v>884183</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>989440</v>
+        <v>989229</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2766569630709741</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2613647002660476</v>
+        <v>0.2620761001725826</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2932748097482629</v>
+        <v>0.2932123153100297</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1327</v>
@@ -3365,19 +3365,19 @@
         <v>1374628</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1309651</v>
+        <v>1307383</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1441711</v>
+        <v>1444908</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2069863985591821</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1972024511706147</v>
+        <v>0.1968608835101727</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2170875548940046</v>
+        <v>0.2175689623180488</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>425074</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>391628</v>
+        <v>390202</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>464118</v>
+        <v>468936</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1300961080737072</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1198596371334417</v>
+        <v>0.119423396482206</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1420456722091513</v>
+        <v>0.1435201837782747</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>674</v>
@@ -3415,19 +3415,19 @@
         <v>687351</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>642843</v>
+        <v>641905</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>732072</v>
+        <v>733519</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2037341308411812</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1905415889008238</v>
+        <v>0.1902638147877159</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.216989599698241</v>
+        <v>0.2174184288775713</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1092</v>
@@ -3436,19 +3436,19 @@
         <v>1112425</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1058011</v>
+        <v>1050556</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1179801</v>
+        <v>1169512</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1675048920272844</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1593114060142954</v>
+        <v>0.1581887830458794</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1776500897573288</v>
+        <v>0.1761007283517802</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>764129</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>717804</v>
+        <v>711584</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>811400</v>
+        <v>813002</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2338654998613807</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.219687612145289</v>
+        <v>0.2177838834913331</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2483330962784613</v>
+        <v>0.2488234292036253</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>714</v>
@@ -3486,19 +3486,19 @@
         <v>726375</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>673263</v>
+        <v>677368</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>769115</v>
+        <v>770429</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2153009989387632</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1995584073082308</v>
+        <v>0.2007751748919174</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2279692728465979</v>
+        <v>0.2283589345250693</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1471</v>
@@ -3507,19 +3507,19 @@
         <v>1490504</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1422462</v>
+        <v>1416606</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1559917</v>
+        <v>1552358</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.224434564888926</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2141890306714674</v>
+        <v>0.2133072551594367</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2348865018319053</v>
+        <v>0.2337483185142602</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>477602</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>437507</v>
+        <v>438758</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>520813</v>
+        <v>518131</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1461726503911548</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1339011543035782</v>
+        <v>0.1342841480248177</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1593976021394609</v>
+        <v>0.1585766832448899</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>263</v>
@@ -3557,19 +3557,19 @@
         <v>270024</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>239622</v>
+        <v>239749</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>304533</v>
+        <v>301622</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.080036334835453</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07102508244349701</v>
+        <v>0.07106261800756039</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09026491821048134</v>
+        <v>0.08940232760358896</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>727</v>
@@ -3578,19 +3578,19 @@
         <v>747626</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>695760</v>
+        <v>698773</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>800272</v>
+        <v>801918</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1125748017916449</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1047649695206984</v>
+        <v>0.1052186552190086</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1205020377174528</v>
+        <v>0.1207498839667801</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>1159328</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1108611</v>
+        <v>1108118</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1217131</v>
+        <v>1215869</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3548182295243461</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3392960075919553</v>
+        <v>0.3391451716399441</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.372509228861021</v>
+        <v>0.3721229020202235</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>737</v>
@@ -3628,19 +3628,19 @@
         <v>756640</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>708958</v>
+        <v>708573</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>802013</v>
+        <v>805519</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2242715723136285</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2101384403794563</v>
+        <v>0.2100244581596065</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.237720383799231</v>
+        <v>0.238759657880125</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1879</v>
@@ -3649,19 +3649,19 @@
         <v>1915968</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1837729</v>
+        <v>1839772</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1982159</v>
+        <v>1990797</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2884993427329626</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2767184641797447</v>
+        <v>0.2770260538152631</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2984661645946248</v>
+        <v>0.2997667968817211</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>57385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44156</v>
+        <v>43726</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72897</v>
+        <v>73547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1312524279250887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.100995206876562</v>
+        <v>0.1000100669776973</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1667315562940702</v>
+        <v>0.1682187455209885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -4016,19 +4016,19 @@
         <v>99292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82966</v>
+        <v>83041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117967</v>
+        <v>118181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3177504395161548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2655048089240074</v>
+        <v>0.2657455980109404</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3775160272303316</v>
+        <v>0.378198465099568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -4037,19 +4037,19 @@
         <v>156677</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133487</v>
+        <v>133605</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>180691</v>
+        <v>181486</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.208987463575028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1780550804666509</v>
+        <v>0.1782127285559686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2410203108501911</v>
+        <v>0.2420805149442808</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>61157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47086</v>
+        <v>48466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76408</v>
+        <v>78371</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1398800446249898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1076972020254304</v>
+        <v>0.110852243223968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1747634347077942</v>
+        <v>0.1792522758768697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -4087,19 +4087,19 @@
         <v>82875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66590</v>
+        <v>67210</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100662</v>
+        <v>100873</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.265213455817178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2131008173975224</v>
+        <v>0.2150827457016412</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3221345362141539</v>
+        <v>0.3228126298590249</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>130</v>
@@ -4108,19 +4108,19 @@
         <v>144032</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120738</v>
+        <v>123119</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166847</v>
+        <v>169453</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1921208009957133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1610499885494655</v>
+        <v>0.1642262845410663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.222553149277333</v>
+        <v>0.2260298635953294</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>131997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111806</v>
+        <v>110374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151815</v>
+        <v>151960</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3019061244461888</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2557263758027851</v>
+        <v>0.2524511458075303</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3472346982386726</v>
+        <v>0.3475668238964003</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -4158,19 +4158,19 @@
         <v>65767</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50625</v>
+        <v>52016</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82298</v>
+        <v>81855</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2104648502494512</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1620078538031246</v>
+        <v>0.1664603664196895</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.263368115842855</v>
+        <v>0.261950331708838</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>182</v>
@@ -4179,19 +4179,19 @@
         <v>197763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>173911</v>
+        <v>175249</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>222596</v>
+        <v>227132</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2637920949778994</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2319761241486944</v>
+        <v>0.2337604268222561</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2969162141723234</v>
+        <v>0.3029658712879043</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>57175</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44513</v>
+        <v>43030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73345</v>
+        <v>72613</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.130772542303396</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1018101196884714</v>
+        <v>0.09841847222838777</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1677569708380628</v>
+        <v>0.1660831620092839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -4229,19 +4229,19 @@
         <v>18835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12137</v>
+        <v>11169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29325</v>
+        <v>28403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06027433183618341</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03884192629186259</v>
+        <v>0.0357412935984719</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09384648381881115</v>
+        <v>0.09089514354328186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -4250,19 +4250,19 @@
         <v>76010</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60623</v>
+        <v>60922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96212</v>
+        <v>95222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1013878810023304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08086368731128339</v>
+        <v>0.08126292556628241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1283345791754673</v>
+        <v>0.1270143497033273</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>129497</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110328</v>
+        <v>109991</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>151061</v>
+        <v>152597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2961888607003367</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2523438844054524</v>
+        <v>0.251573492520418</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3455103288664531</v>
+        <v>0.349023889973795</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -4300,19 +4300,19 @@
         <v>45715</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34618</v>
+        <v>34390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60757</v>
+        <v>60563</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1462969225810326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1107847383271395</v>
+        <v>0.1100551179394051</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1944338808106515</v>
+        <v>0.1938114830824413</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>159</v>
@@ -4321,19 +4321,19 @@
         <v>175212</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152021</v>
+        <v>149025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>203910</v>
+        <v>199968</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.233711759449029</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2027774622772531</v>
+        <v>0.1987811217680382</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2719914497850143</v>
+        <v>0.2667332155739725</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>59387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45109</v>
+        <v>44979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76128</v>
+        <v>74174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1420913451320154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1079301891917069</v>
+        <v>0.1076189232441321</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1821477491104251</v>
+        <v>0.1774729227622887</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -4446,19 +4446,19 @@
         <v>89864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71649</v>
+        <v>73286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107147</v>
+        <v>107744</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2658608798996586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2119735854953938</v>
+        <v>0.2168154951594639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3169928669374796</v>
+        <v>0.3187601624998955</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -4467,19 +4467,19 @@
         <v>149251</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129393</v>
+        <v>127770</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173198</v>
+        <v>175158</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1974323125197053</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1711639958000539</v>
+        <v>0.1690167757123983</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2291103646638201</v>
+        <v>0.2317034417245644</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>62878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48421</v>
+        <v>47710</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79404</v>
+        <v>80563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1504442652924148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1158552595022798</v>
+        <v>0.1141530996683583</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1899847917670995</v>
+        <v>0.1927586717231755</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -4517,19 +4517,19 @@
         <v>77855</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63402</v>
+        <v>62814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95622</v>
+        <v>95262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2303320265602486</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1875746604017155</v>
+        <v>0.1858350266410801</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2828961083784211</v>
+        <v>0.2818301895642593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>126</v>
@@ -4538,19 +4538,19 @@
         <v>140732</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>120048</v>
+        <v>119146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>164867</v>
+        <v>168690</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1861644124134214</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1588018585657677</v>
+        <v>0.1576091731756903</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.218089982325606</v>
+        <v>0.2231470039308568</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>131625</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>112681</v>
+        <v>112834</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>152334</v>
+        <v>151909</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3149329138687258</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2696056456439482</v>
+        <v>0.2699709319393945</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3644811967217483</v>
+        <v>0.3634642355140448</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>75</v>
@@ -4588,19 +4588,19 @@
         <v>83294</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67375</v>
+        <v>67041</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102101</v>
+        <v>101669</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2464253335396625</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1993283395256247</v>
+        <v>0.1983398112150541</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3020653909327528</v>
+        <v>0.3007856091526064</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>197</v>
@@ -4609,19 +4609,19 @@
         <v>214920</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>188866</v>
+        <v>187283</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>240193</v>
+        <v>241125</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2843011774247153</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2498369265467769</v>
+        <v>0.2477423292872334</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3177337299642131</v>
+        <v>0.3189667758701418</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>35660</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24357</v>
+        <v>25216</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48331</v>
+        <v>50708</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0853226730159333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05827785777489478</v>
+        <v>0.06033265772665205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1156398873837063</v>
+        <v>0.1213274238032253</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4659,19 +4659,19 @@
         <v>20870</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13207</v>
+        <v>12605</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33357</v>
+        <v>33070</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06174415302326555</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03907242308421009</v>
+        <v>0.03729036890108866</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09868715968847627</v>
+        <v>0.09783592880889037</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -4680,19 +4680,19 @@
         <v>56531</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42828</v>
+        <v>42260</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73555</v>
+        <v>75030</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07478002931598018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05665425330480984</v>
+        <v>0.05590290484953236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09730029914706868</v>
+        <v>0.09925171273615449</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>128397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107578</v>
+        <v>107174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149715</v>
+        <v>149526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3072088026909107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2573967065291793</v>
+        <v>0.2564301981623758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3582140911270717</v>
+        <v>0.3577636091655702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -4730,19 +4730,19 @@
         <v>66128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52883</v>
+        <v>52044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83444</v>
+        <v>82273</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1956376069771648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1564534817293479</v>
+        <v>0.1539724275216693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2468680525657089</v>
+        <v>0.2434035443883329</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>174</v>
@@ -4751,19 +4751,19 @@
         <v>194525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>169937</v>
+        <v>170417</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>223542</v>
+        <v>221723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2573220683261778</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2247975090270442</v>
+        <v>0.2254317285755157</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2957074959090385</v>
+        <v>0.293300122668316</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>66739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52233</v>
+        <v>52536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81613</v>
+        <v>82621</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1063648518050367</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08324575243627717</v>
+        <v>0.08372921070700826</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1300714742257785</v>
+        <v>0.1316771531208758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -4876,19 +4876,19 @@
         <v>72263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58136</v>
+        <v>57767</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88451</v>
+        <v>89916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2777969942583087</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2234896949668738</v>
+        <v>0.2220692070291053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3400289465963802</v>
+        <v>0.3456577860534887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -4897,19 +4897,19 @@
         <v>139002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117927</v>
+        <v>117681</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162915</v>
+        <v>162670</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1566077243278033</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1328630463776013</v>
+        <v>0.132586841338566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.18355011581853</v>
+        <v>0.1832738118011154</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>58055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43640</v>
+        <v>44266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75480</v>
+        <v>75670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09252501910226039</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0695517231173486</v>
+        <v>0.07054935248567586</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1202964140675044</v>
+        <v>0.120599616767343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -4947,19 +4947,19 @@
         <v>41607</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30265</v>
+        <v>30346</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54597</v>
+        <v>55126</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.159949024187578</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1163470811633193</v>
+        <v>0.1166585399232932</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2098848071151694</v>
+        <v>0.2119178547121582</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>95</v>
@@ -4968,19 +4968,19 @@
         <v>99662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>79177</v>
+        <v>80544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>118228</v>
+        <v>119412</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1122854656789538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08920564768933106</v>
+        <v>0.09074557205506663</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1332031141176201</v>
+        <v>0.1345361989417234</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>139805</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>120456</v>
+        <v>119877</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>162958</v>
+        <v>162818</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.222814690420181</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1919764745849266</v>
+        <v>0.1910540868072026</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2597148772699684</v>
+        <v>0.2594911160206541</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -5018,19 +5018,19 @@
         <v>61581</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48770</v>
+        <v>48412</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>77381</v>
+        <v>76286</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2367336737320129</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1874845058266361</v>
+        <v>0.1861071277931381</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2974729385296344</v>
+        <v>0.2932627989689121</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>189</v>
@@ -5039,19 +5039,19 @@
         <v>201387</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>176180</v>
+        <v>177233</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>229132</v>
+        <v>227466</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2268940287179772</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1984943481457712</v>
+        <v>0.1996807005777389</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2581531824110654</v>
+        <v>0.2562763302664929</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>78975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62773</v>
+        <v>63652</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95381</v>
+        <v>98375</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1258667510830771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1000439915368146</v>
+        <v>0.101445548039702</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1520129261419305</v>
+        <v>0.1567852006916344</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -5089,19 +5089,19 @@
         <v>19423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12083</v>
+        <v>13051</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28396</v>
+        <v>30978</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07466784528783121</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04644879500370558</v>
+        <v>0.05016937524773195</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1091630227664625</v>
+        <v>0.1190853254595296</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>94</v>
@@ -5110,19 +5110,19 @@
         <v>98398</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81921</v>
+        <v>80647</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121195</v>
+        <v>117711</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1108615130899928</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09229675333656052</v>
+        <v>0.09086211193042182</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1365459533301185</v>
+        <v>0.1326197795601425</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>283876</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258265</v>
+        <v>257052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>308977</v>
+        <v>309076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4524286875894448</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4116105946050767</v>
+        <v>0.4096769975151092</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4924327054126373</v>
+        <v>0.4925904079485587</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -5160,19 +5160,19 @@
         <v>65254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51978</v>
+        <v>51242</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79056</v>
+        <v>80935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2508524625342692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1998155029877689</v>
+        <v>0.1969850287001381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3039095871337864</v>
+        <v>0.3111328355794727</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>324</v>
@@ -5181,19 +5181,19 @@
         <v>349131</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>315836</v>
+        <v>321359</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>377580</v>
+        <v>378252</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3933512681852729</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3558398893307347</v>
+        <v>0.3620623949809459</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.425403794767974</v>
+        <v>0.4261615276443921</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>111613</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91080</v>
+        <v>92378</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>132831</v>
+        <v>133790</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09646113583023457</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07871627462226916</v>
+        <v>0.07983750592500422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1147994940981746</v>
+        <v>0.1156276352724147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -5306,19 +5306,19 @@
         <v>177175</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>152286</v>
+        <v>153055</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>201791</v>
+        <v>203388</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2313984837034408</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1988918487017954</v>
+        <v>0.1998965502382607</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.263548621888992</v>
+        <v>0.2656346152736844</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>268</v>
@@ -5327,19 +5327,19 @@
         <v>288787</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>257222</v>
+        <v>256428</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>323241</v>
+        <v>322787</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1501955322095346</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1337784220432116</v>
+        <v>0.1333655378984241</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1681143555254501</v>
+        <v>0.1678785022276573</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>115189</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>94941</v>
+        <v>94395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>137986</v>
+        <v>136988</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09955214412619315</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08205252793488328</v>
+        <v>0.08158055658336008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1192540847052043</v>
+        <v>0.1183914649194596</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>124</v>
@@ -5377,19 +5377,19 @@
         <v>130379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>110362</v>
+        <v>110483</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>152199</v>
+        <v>153115</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1702809135396806</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.144137788250316</v>
+        <v>0.144296207720537</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1987790560114634</v>
+        <v>0.1999750067063039</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>228</v>
@@ -5398,19 +5398,19 @@
         <v>245568</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>215599</v>
+        <v>213921</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>278500</v>
+        <v>279120</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.127717568976959</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.112130945338183</v>
+        <v>0.1112581830390465</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1448453996668971</v>
+        <v>0.1451675355420608</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>218180</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>193091</v>
+        <v>191071</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>243740</v>
+        <v>246392</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1885620265928455</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1668786188263934</v>
+        <v>0.1651328497021482</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2106524966386036</v>
+        <v>0.2129445723764711</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>183</v>
@@ -5448,19 +5448,19 @@
         <v>194427</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>170778</v>
+        <v>170516</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>220257</v>
+        <v>219477</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2539309402994494</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2230440675132037</v>
+        <v>0.2227012357074067</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2876651817857517</v>
+        <v>0.2866467838595092</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>389</v>
@@ -5469,19 +5469,19 @@
         <v>412607</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>376255</v>
+        <v>376442</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>447595</v>
+        <v>447352</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2145930637768243</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1956864315879107</v>
+        <v>0.1957838601380349</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2327895681345889</v>
+        <v>0.2326635533489996</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>153332</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>129962</v>
+        <v>130957</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178870</v>
+        <v>177693</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1325172006026437</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1123199753356065</v>
+        <v>0.1131792712851425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.154588416287834</v>
+        <v>0.1535710696351051</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -5519,19 +5519,19 @@
         <v>72774</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56257</v>
+        <v>56385</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92236</v>
+        <v>92546</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09504645721232122</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07347390186224527</v>
+        <v>0.07364116083473034</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1204638408455852</v>
+        <v>0.1208695125777619</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>206</v>
@@ -5540,19 +5540,19 @@
         <v>226106</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>198077</v>
+        <v>198140</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>259482</v>
+        <v>259511</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.11759569955273</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1030181508154534</v>
+        <v>0.1030504732023595</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1349539891462624</v>
+        <v>0.1349692587824823</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>558759</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>523214</v>
+        <v>522889</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>594421</v>
+        <v>592649</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4829074928480831</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4521876907213644</v>
+        <v>0.4519066566484634</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5137278292172718</v>
+        <v>0.5121964926297664</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>176</v>
@@ -5590,19 +5590,19 @@
         <v>190915</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>166349</v>
+        <v>168854</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>216671</v>
+        <v>217604</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.249343205245108</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2172588509885431</v>
+        <v>0.2205311996891287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2829827218825354</v>
+        <v>0.2842004805287834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>700</v>
@@ -5611,19 +5611,19 @@
         <v>749674</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>709195</v>
+        <v>709544</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>795068</v>
+        <v>796723</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3898981354839521</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3688452832461172</v>
+        <v>0.369027110355202</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.413507004845397</v>
+        <v>0.4143681152777217</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>39245</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28388</v>
+        <v>28200</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51923</v>
+        <v>52710</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07686134772019751</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05559704863291281</v>
+        <v>0.05522929332613834</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.101690023703727</v>
+        <v>0.103232872005855</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>144</v>
@@ -5736,19 +5736,19 @@
         <v>154461</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>130806</v>
+        <v>134330</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>178196</v>
+        <v>180951</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2040009755640198</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1727592993795136</v>
+        <v>0.1774130383459621</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2353484871344101</v>
+        <v>0.2389865689546602</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>182</v>
@@ -5757,19 +5757,19 @@
         <v>193706</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>166785</v>
+        <v>168607</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>219779</v>
+        <v>220909</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.152794741680016</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.131559169307789</v>
+        <v>0.1329965297431457</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1733603125450184</v>
+        <v>0.1742519848989219</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>35010</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25761</v>
+        <v>24830</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49263</v>
+        <v>46654</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06856749968940368</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05045219845245293</v>
+        <v>0.04862952503439126</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09648107013923578</v>
+        <v>0.09137167692819775</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>107</v>
@@ -5807,19 +5807,19 @@
         <v>115524</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>97330</v>
+        <v>97157</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>138389</v>
+        <v>137402</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1525750511650523</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1285458238982675</v>
+        <v>0.1283176870497244</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.182774424937661</v>
+        <v>0.1814696797795619</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>141</v>
@@ -5828,19 +5828,19 @@
         <v>150534</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>128076</v>
+        <v>129430</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>173387</v>
+        <v>174856</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1187405150582709</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1010257991337761</v>
+        <v>0.1020938179678264</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1367668609477098</v>
+        <v>0.1379252245986893</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>84728</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>69786</v>
+        <v>70249</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>104316</v>
+        <v>103233</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1659386994552792</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1366760130821391</v>
+        <v>0.1375821175387162</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2043016068237249</v>
+        <v>0.2021811630140103</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>153</v>
@@ -5878,19 +5878,19 @@
         <v>165810</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>142763</v>
+        <v>141865</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>190649</v>
+        <v>188999</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.218989405689523</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1885509317236069</v>
+        <v>0.1873642166011556</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2517952732273386</v>
+        <v>0.2496158627056873</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>235</v>
@@ -5899,19 +5899,19 @@
         <v>250538</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>224278</v>
+        <v>221844</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>281865</v>
+        <v>280076</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1976229213194473</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1769092524567556</v>
+        <v>0.1749898254453947</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2223339830874138</v>
+        <v>0.2209228362316419</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>69595</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>55882</v>
+        <v>55120</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>84687</v>
+        <v>84146</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1363022045550734</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1094442318596031</v>
+        <v>0.1079526912092671</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1658588995394166</v>
+        <v>0.1647995919645554</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>57</v>
@@ -5949,19 +5949,19 @@
         <v>62885</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49667</v>
+        <v>49362</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>82350</v>
+        <v>79871</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.083053239941855</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06559624015018856</v>
+        <v>0.06519421765951175</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1087618319199761</v>
+        <v>0.1054877032422153</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>125</v>
@@ -5970,19 +5970,19 @@
         <v>132480</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>112217</v>
+        <v>110300</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>154648</v>
+        <v>156788</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1044995740416759</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08851626936549747</v>
+        <v>0.08700382482796293</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1219855228381578</v>
+        <v>0.1236740158455991</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>282018</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>259261</v>
+        <v>261199</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>303764</v>
+        <v>305643</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5523302485800462</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.507761541720505</v>
+        <v>0.5115575942979526</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5949211496198547</v>
+        <v>0.5985995553887259</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>238</v>
@@ -6020,19 +6020,19 @@
         <v>258480</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>227963</v>
+        <v>228778</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>286699</v>
+        <v>284336</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3413813276395499</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3010759741480425</v>
+        <v>0.3021529037411778</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.378650535580589</v>
+        <v>0.3755299743597482</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>503</v>
@@ -6041,19 +6041,19 @@
         <v>540498</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>506751</v>
+        <v>505305</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>574341</v>
+        <v>578021</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4263422479005899</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3997226773569093</v>
+        <v>0.3985824665409998</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4530372022840588</v>
+        <v>0.4559404570866904</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>30700</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21460</v>
+        <v>21230</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>42485</v>
+        <v>43645</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1150302834117433</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08041089612253607</v>
+        <v>0.07954731044116665</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1591908750091262</v>
+        <v>0.1635363372822801</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>187</v>
@@ -6166,19 +6166,19 @@
         <v>201344</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>174965</v>
+        <v>174720</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>229322</v>
+        <v>228400</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1818595460933914</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1580333253754617</v>
+        <v>0.1578115728484618</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2071298695035874</v>
+        <v>0.2062977383654219</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>216</v>
@@ -6187,19 +6187,19 @@
         <v>232043</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>201983</v>
+        <v>203798</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>263336</v>
+        <v>262048</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1688790243574826</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1470010336979152</v>
+        <v>0.1483224354220242</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1916535454103097</v>
+        <v>0.1907157673947071</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>47738</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>35254</v>
+        <v>35239</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>60831</v>
+        <v>59159</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1788746385886309</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1320961289211686</v>
+        <v>0.132041475002609</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2279303824723418</v>
+        <v>0.2216685501101689</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>158</v>
@@ -6237,19 +6237,19 @@
         <v>167195</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>144011</v>
+        <v>145786</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>191746</v>
+        <v>193859</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.151015671617853</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1300750925984064</v>
+        <v>0.1316782638518685</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1731907104726523</v>
+        <v>0.175099143594717</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>205</v>
@@ -6258,19 +6258,19 @@
         <v>214934</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>188389</v>
+        <v>188452</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>243824</v>
+        <v>242724</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1564268330132255</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1371074157146965</v>
+        <v>0.1371535143054126</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1774525548594073</v>
+        <v>0.1766523668802663</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>62469</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49322</v>
+        <v>49436</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>75378</v>
+        <v>76593</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2340707292740024</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1848073523056631</v>
+        <v>0.1852335894296478</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2824386569967102</v>
+        <v>0.2869915083107847</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>262</v>
@@ -6308,19 +6308,19 @@
         <v>270685</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>241677</v>
+        <v>242425</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>300850</v>
+        <v>299255</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2444900081114533</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2182897946573155</v>
+        <v>0.2189650985819036</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2717361073565737</v>
+        <v>0.2702951851455921</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>326</v>
@@ -6329,19 +6329,19 @@
         <v>333154</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>303695</v>
+        <v>301977</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>368498</v>
+        <v>366696</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2424662288567531</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2210259993301193</v>
+        <v>0.2197762762566913</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2681889872325299</v>
+        <v>0.2668777315354892</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>45500</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>34460</v>
+        <v>34228</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>59437</v>
+        <v>60689</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1704890897647908</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1291208345980572</v>
+        <v>0.12825081079771</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2227077368295552</v>
+        <v>0.2273996324458389</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>110</v>
@@ -6379,19 +6379,19 @@
         <v>115099</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>94843</v>
+        <v>97250</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>135744</v>
+        <v>136885</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1039608522074181</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08566468679575941</v>
+        <v>0.08783882728662985</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1226074873226867</v>
+        <v>0.1236379398400047</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>154</v>
@@ -6400,19 +6400,19 @@
         <v>160600</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>136314</v>
+        <v>137172</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>186020</v>
+        <v>185581</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.116882904599032</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09920790040531738</v>
+        <v>0.09983210035682842</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.135383534657303</v>
+        <v>0.1350638734606098</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>80474</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>67321</v>
+        <v>65131</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>95901</v>
+        <v>94602</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3015352589608326</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2522503317451845</v>
+        <v>0.2440458183738851</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3593394798326378</v>
+        <v>0.3544713704944498</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>325</v>
@@ -6450,19 +6450,19 @@
         <v>352817</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>322838</v>
+        <v>322540</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>386227</v>
+        <v>383476</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3186739219698843</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2915966847714248</v>
+        <v>0.2913271617366466</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3488512292449396</v>
+        <v>0.3463659193386499</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>406</v>
@@ -6471,19 +6471,19 @@
         <v>433291</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>401029</v>
+        <v>398088</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>469563</v>
+        <v>470915</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3153450091735067</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2918652059934492</v>
+        <v>0.2897249698591905</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.341743444645021</v>
+        <v>0.3427276243029461</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>365068</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>330416</v>
+        <v>330843</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>404066</v>
+        <v>404448</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1068336188336115</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.09669304487463426</v>
+        <v>0.0968181150556937</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1182460275034009</v>
+        <v>0.1183578042677501</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>729</v>
@@ -6596,19 +6596,19 @@
         <v>794399</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>739259</v>
+        <v>742091</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>846468</v>
+        <v>844169</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2243688610938579</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2087953366549475</v>
+        <v>0.2095951339704504</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2390751184119672</v>
+        <v>0.2384260065014809</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1073</v>
@@ -6617,19 +6617,19 @@
         <v>1159466</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1097931</v>
+        <v>1096774</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1221824</v>
+        <v>1222969</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1666438038162008</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1577996319589068</v>
+        <v>0.1576333851823605</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1756061264518329</v>
+        <v>0.1757706967733235</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>380028</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>340601</v>
+        <v>343067</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>416573</v>
+        <v>418137</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1112115191230727</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.09967378874299868</v>
+        <v>0.100395480226247</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1219062186102296</v>
+        <v>0.122363963479215</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>573</v>
@@ -6667,19 +6667,19 @@
         <v>615435</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>569262</v>
+        <v>567506</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>660999</v>
+        <v>662094</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1738225875147879</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1607815144855174</v>
+        <v>0.1602856608233304</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1866916457044379</v>
+        <v>0.1870008654425673</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>925</v>
@@ -6688,19 +6688,19 @@
         <v>995463</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>941951</v>
+        <v>936499</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1060868</v>
+        <v>1060014</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.143072427480877</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1353815138034026</v>
+        <v>0.1345978632520304</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.152472722041252</v>
+        <v>0.1523500653739973</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>768804</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>716630</v>
+        <v>723982</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>819707</v>
+        <v>823604</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.224983366577826</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2097151193470191</v>
+        <v>0.2118665464555905</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2398794847379078</v>
+        <v>0.2410199089897573</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>790</v>
@@ -6738,19 +6738,19 @@
         <v>841564</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>792414</v>
+        <v>791262</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>899091</v>
+        <v>893137</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2376902515349911</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2238081356359012</v>
+        <v>0.2234830069981685</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2539379331125659</v>
+        <v>0.252256382228557</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1518</v>
@@ -6759,19 +6759,19 @@
         <v>1610369</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1540789</v>
+        <v>1540475</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1684384</v>
+        <v>1684112</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2314495219642907</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2214492762207735</v>
+        <v>0.221404068285304</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2420873820021296</v>
+        <v>0.2420483068697003</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>440239</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>402512</v>
+        <v>400810</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>481934</v>
+        <v>477132</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1288317369919402</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1177914899656377</v>
+        <v>0.1172933372558232</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1410336200041562</v>
+        <v>0.1396282213052584</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>285</v>
@@ -6809,19 +6809,19 @@
         <v>309886</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>277653</v>
+        <v>276341</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>341600</v>
+        <v>348618</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08752381363255046</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07841999807902233</v>
+        <v>0.07804936933266346</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09648096154203345</v>
+        <v>0.09846324831954299</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>700</v>
@@ -6830,19 +6830,19 @@
         <v>750125</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>703984</v>
+        <v>696853</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>811555</v>
+        <v>803555</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1078113648051773</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1011797333091535</v>
+        <v>0.1001549628426901</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1166403366941771</v>
+        <v>0.1154905770330854</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>1463022</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1400293</v>
+        <v>1399092</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1520193</v>
+        <v>1517970</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4281397584735496</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4097827370810446</v>
+        <v>0.4094313605063969</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4448702689375503</v>
+        <v>0.4442196797372649</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>905</v>
@@ -6880,19 +6880,19 @@
         <v>979309</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>926834</v>
+        <v>924186</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1031334</v>
+        <v>1035683</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2765944862238127</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2617735762542741</v>
+        <v>0.2610256776545451</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2912884349541462</v>
+        <v>0.2925168151664835</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2266</v>
@@ -6901,19 +6901,19 @@
         <v>2442331</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2362768</v>
+        <v>2361292</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2520507</v>
+        <v>2525794</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3510228819334542</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3395877714500469</v>
+        <v>0.3393756119715765</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3622588124640721</v>
+        <v>0.3630185968231469</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>67422</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52419</v>
+        <v>53504</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85912</v>
+        <v>86457</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1574451222136789</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1224105927456387</v>
+        <v>0.1249439206800669</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2006239488948295</v>
+        <v>0.2018958589598108</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -7268,19 +7268,19 @@
         <v>63602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51623</v>
+        <v>50511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80516</v>
+        <v>79896</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1832624020482254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1487460975133954</v>
+        <v>0.1455427902331387</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2319981229198019</v>
+        <v>0.2302119176549923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -7289,19 +7289,19 @@
         <v>131024</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110204</v>
+        <v>109228</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>152347</v>
+        <v>153579</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1690022513572509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1421469134108244</v>
+        <v>0.1408880710262268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1965062065507919</v>
+        <v>0.1980944319800675</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>128943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109354</v>
+        <v>110656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150983</v>
+        <v>148299</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3011100524099424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2553657155432527</v>
+        <v>0.2584066341173173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3525788000399125</v>
+        <v>0.3463114762444039</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -7339,19 +7339,19 @@
         <v>119791</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103072</v>
+        <v>102379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>138111</v>
+        <v>136609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3451629571323633</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2969904909944266</v>
+        <v>0.294993235698179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3979501020197759</v>
+        <v>0.3936235059280606</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -7360,19 +7360,19 @@
         <v>248733</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>221541</v>
+        <v>223475</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>275378</v>
+        <v>275809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3208303758634312</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2857562596449385</v>
+        <v>0.2882503420910844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3551986604994299</v>
+        <v>0.3557538779334616</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>100036</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>82714</v>
+        <v>83060</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120274</v>
+        <v>120836</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2336056844657692</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1931554816994333</v>
+        <v>0.1939642647774824</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2808656533593893</v>
+        <v>0.2821778170178829</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>75</v>
@@ -7410,19 +7410,19 @@
         <v>76656</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62633</v>
+        <v>61422</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>95163</v>
+        <v>92256</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2208755237379324</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1804708748613245</v>
+        <v>0.1769791691850226</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2742010251831725</v>
+        <v>0.265826352304868</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>165</v>
@@ -7431,19 +7431,19 @@
         <v>176692</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>155100</v>
+        <v>152414</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>202350</v>
+        <v>202111</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.227907016267845</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2000571397910443</v>
+        <v>0.1965927466185513</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2610025099636195</v>
+        <v>0.2606944425889748</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>25603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16196</v>
+        <v>17248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37223</v>
+        <v>37401</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05978943135945342</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03782199129029054</v>
+        <v>0.04027802371985174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08692378583980349</v>
+        <v>0.08733959689865567</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -7481,19 +7481,19 @@
         <v>19995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12312</v>
+        <v>13130</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30942</v>
+        <v>30177</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05761192385971377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03547594358666407</v>
+        <v>0.03783390062119904</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08915635700836823</v>
+        <v>0.0869521750251414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -7502,19 +7502,19 @@
         <v>45598</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32384</v>
+        <v>33808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62100</v>
+        <v>60403</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05881466811766863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04177080033467139</v>
+        <v>0.04360732413960915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0801006471160725</v>
+        <v>0.07791108649144786</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>106221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88480</v>
+        <v>89020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126710</v>
+        <v>126041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2480497095511561</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2066193001098562</v>
+        <v>0.2078818537427455</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.29589609528467</v>
+        <v>0.2943329650631809</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -7552,19 +7552,19 @@
         <v>67012</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52924</v>
+        <v>53685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83478</v>
+        <v>87308</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1930871932217652</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.152495300511201</v>
+        <v>0.1546866981765581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2405328971993038</v>
+        <v>0.2515694617720365</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>159</v>
@@ -7573,19 +7573,19 @@
         <v>173233</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>149915</v>
+        <v>152296</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>198562</v>
+        <v>198389</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2234456883938043</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1933690925947046</v>
+        <v>0.1964401600224072</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2561164029597804</v>
+        <v>0.2558938329206076</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>49453</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35958</v>
+        <v>36154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64853</v>
+        <v>63929</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1318084107748329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09584009078796479</v>
+        <v>0.09636189156713715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1728538030543673</v>
+        <v>0.1703890211562746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -7698,19 +7698,19 @@
         <v>86345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70422</v>
+        <v>69710</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103215</v>
+        <v>105707</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2332797652324606</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1902605026972725</v>
+        <v>0.1883359114289685</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2788587563158505</v>
+        <v>0.2855916439761365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -7719,19 +7719,19 @@
         <v>135798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113329</v>
+        <v>116709</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157906</v>
+        <v>160020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1821998498505963</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1520523203958495</v>
+        <v>0.1565884832117406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2118622244316213</v>
+        <v>0.2146983874221517</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>79243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64673</v>
+        <v>62813</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98972</v>
+        <v>96463</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2112057648484449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1723741734626224</v>
+        <v>0.1674164611678196</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2637890144177972</v>
+        <v>0.2571036266213925</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -7769,19 +7769,19 @@
         <v>121454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103930</v>
+        <v>103753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>140487</v>
+        <v>142065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3281347039700691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2807902009002655</v>
+        <v>0.2803108911388683</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3795552990952746</v>
+        <v>0.3838191923488576</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>194</v>
@@ -7790,19 +7790,19 @@
         <v>200697</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>176097</v>
+        <v>177824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>225496</v>
+        <v>224800</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2692735569207528</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2362685250742026</v>
+        <v>0.2385861725274566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3025462249242712</v>
+        <v>0.3016128958908167</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>95418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79074</v>
+        <v>79753</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112913</v>
+        <v>113160</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2543175458334161</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.210755938046517</v>
+        <v>0.2125664974094886</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3009478987754002</v>
+        <v>0.3016060087485407</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -7840,19 +7840,19 @@
         <v>73506</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58738</v>
+        <v>59041</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>91144</v>
+        <v>89672</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1985920178342223</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1586923577833352</v>
+        <v>0.1595130348880101</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2462460138239523</v>
+        <v>0.2422680883795179</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>164</v>
@@ -7861,19 +7861,19 @@
         <v>168924</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>146364</v>
+        <v>145925</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>193149</v>
+        <v>194875</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2266438288110546</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.196376380622923</v>
+        <v>0.1957863921750617</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2591472883456356</v>
+        <v>0.2614625091819214</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>31571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21558</v>
+        <v>21385</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43338</v>
+        <v>43503</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08414619255594452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05745863932187926</v>
+        <v>0.05699843458299272</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1155078693224156</v>
+        <v>0.1159480258520517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -7911,19 +7911,19 @@
         <v>19837</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12200</v>
+        <v>12242</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31404</v>
+        <v>30479</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05359387021993733</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03296162828228156</v>
+        <v>0.03307400855339539</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08484563037265873</v>
+        <v>0.08234636719246885</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -7932,19 +7932,19 @@
         <v>51408</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37753</v>
+        <v>38519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67241</v>
+        <v>70236</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06897367911264669</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05065278015035795</v>
+        <v>0.05168132720869417</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09021641103983186</v>
+        <v>0.0942353645863514</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>119507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100601</v>
+        <v>102016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137264</v>
+        <v>139910</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3185220859873616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2681318157477059</v>
+        <v>0.2719034538042318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3658510168475701</v>
+        <v>0.3729016667333053</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -7982,19 +7982,19 @@
         <v>68993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54960</v>
+        <v>54751</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86299</v>
+        <v>86598</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1863996427433108</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1484864748034072</v>
+        <v>0.1479223842636281</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2331546724299042</v>
+        <v>0.2339639341093782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>175</v>
@@ -8003,19 +8003,19 @@
         <v>188500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>166651</v>
+        <v>165443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>216879</v>
+        <v>211498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2529090853049495</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2235942049818541</v>
+        <v>0.2219741770309305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.290985391396682</v>
+        <v>0.2837661690517078</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>44342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31713</v>
+        <v>31755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58156</v>
+        <v>57158</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08527039400979108</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06098436676671801</v>
+        <v>0.06106547719798153</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1118342719961925</v>
+        <v>0.1099164142903617</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -8128,19 +8128,19 @@
         <v>35946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25164</v>
+        <v>26583</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48047</v>
+        <v>48149</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2163822996203008</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1514799948950535</v>
+        <v>0.1600194497045308</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2892239920619036</v>
+        <v>0.2898388421786796</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -8149,19 +8149,19 @@
         <v>80288</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63570</v>
+        <v>63358</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101590</v>
+        <v>99806</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1170142438391138</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09264950013935914</v>
+        <v>0.09234002804333682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.148060180540023</v>
+        <v>0.1454603594337201</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>113774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95444</v>
+        <v>96040</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133657</v>
+        <v>133388</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2187894352102956</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.18354042747032</v>
+        <v>0.1846875336966036</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2570238340673724</v>
+        <v>0.2565083117588793</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -8199,19 +8199,19 @@
         <v>52354</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41034</v>
+        <v>40938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65644</v>
+        <v>65242</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3151529819254836</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2470084081801362</v>
+        <v>0.2464348437138688</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.395152994757405</v>
+        <v>0.3927302488769316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -8220,19 +8220,19 @@
         <v>166128</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143567</v>
+        <v>143540</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>189777</v>
+        <v>188375</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2421202680717673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2092388982880964</v>
+        <v>0.2092002773462416</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2765878396481825</v>
+        <v>0.2745445577982404</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>117084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99836</v>
+        <v>98764</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>136042</v>
+        <v>136764</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2251545537864376</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1919863671708916</v>
+        <v>0.1899249645572814</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2616111340727312</v>
+        <v>0.2630002004655652</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -8270,19 +8270,19 @@
         <v>29106</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19958</v>
+        <v>20392</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40864</v>
+        <v>40860</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.175205440694886</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1201405907879824</v>
+        <v>0.1227524433049908</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2459839148987371</v>
+        <v>0.2459635828655735</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>140</v>
@@ -8291,19 +8291,19 @@
         <v>146189</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126422</v>
+        <v>124311</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>169919</v>
+        <v>170110</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2130612420638829</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1842517365890941</v>
+        <v>0.1811753207547151</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2476448954295515</v>
+        <v>0.2479231662621516</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>46773</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36023</v>
+        <v>34944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61494</v>
+        <v>60196</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08994436757003374</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06927219981114642</v>
+        <v>0.06719779421819676</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1182541076269034</v>
+        <v>0.1157574689548202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -8341,19 +8341,19 @@
         <v>7956</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3745</v>
+        <v>3677</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15003</v>
+        <v>15502</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0478897442416447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02254115579437751</v>
+        <v>0.02213630723465075</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09031464178656164</v>
+        <v>0.09331543741752854</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -8362,19 +8362,19 @@
         <v>54728</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40827</v>
+        <v>40983</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70835</v>
+        <v>71211</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07976241161913111</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05950270693851865</v>
+        <v>0.05972935050139728</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1032365303143074</v>
+        <v>0.1037846640386535</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>198044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174455</v>
+        <v>178185</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>220908</v>
+        <v>223036</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3808412494234419</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3354796163528074</v>
+        <v>0.34265289026375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4248107646464949</v>
+        <v>0.4289029987991547</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -8412,19 +8412,19 @@
         <v>40762</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30151</v>
+        <v>30315</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53557</v>
+        <v>53580</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2453695335176849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1814991293308022</v>
+        <v>0.1824834221803482</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.322393082531807</v>
+        <v>0.3225317886967358</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>227</v>
@@ -8433,19 +8433,19 @@
         <v>238805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>212781</v>
+        <v>215254</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>265448</v>
+        <v>263268</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3480418344061049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3101145667765599</v>
+        <v>0.3137185689964588</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3868729352472631</v>
+        <v>0.3836949114003497</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>101489</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81339</v>
+        <v>83091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>122651</v>
+        <v>120758</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08868238548411134</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07107490216457639</v>
+        <v>0.07260589041550783</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1071747484608426</v>
+        <v>0.1055206735244063</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -8558,19 +8558,19 @@
         <v>160215</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138423</v>
+        <v>139495</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>186181</v>
+        <v>185416</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.194576930809585</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1681112095584637</v>
+        <v>0.1694129070357874</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2261121238580158</v>
+        <v>0.225183226358109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>248</v>
@@ -8579,19 +8579,19 @@
         <v>261704</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>232917</v>
+        <v>231517</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>292736</v>
+        <v>294289</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1329924988543467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1183636686378007</v>
+        <v>0.117652275220803</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1487626778199148</v>
+        <v>0.1495518789529464</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>221747</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196174</v>
+        <v>196661</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>252363</v>
+        <v>249637</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1937657876629404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1714201502308687</v>
+        <v>0.1718451047693798</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2205187791131377</v>
+        <v>0.2181368103295777</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>255</v>
@@ -8629,19 +8629,19 @@
         <v>258456</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>232022</v>
+        <v>231512</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>285124</v>
+        <v>285279</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3138881674603927</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2817844830076552</v>
+        <v>0.2811656378344072</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3462752164996181</v>
+        <v>0.3464635058273429</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>465</v>
@@ -8650,19 +8650,19 @@
         <v>480203</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>443317</v>
+        <v>444195</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>516593</v>
+        <v>522898</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2440293423226078</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2252846310653972</v>
+        <v>0.2257308306819243</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2625220311701319</v>
+        <v>0.2657261100446701</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>260270</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>231955</v>
+        <v>233295</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>290558</v>
+        <v>290161</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2274278951995749</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2026860297631354</v>
+        <v>0.2038564466562823</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2538937230858851</v>
+        <v>0.2535473535091756</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>171</v>
@@ -8700,19 +8700,19 @@
         <v>174784</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>151371</v>
+        <v>150951</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>199124</v>
+        <v>197786</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2122708024921708</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1838365828543074</v>
+        <v>0.1833255360254099</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2418313964410302</v>
+        <v>0.2402055315914081</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>423</v>
@@ -8721,19 +8721,19 @@
         <v>435054</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>400755</v>
+        <v>397975</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>473580</v>
+        <v>470039</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2210856186057805</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.203655300972053</v>
+        <v>0.2022427055000338</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2406639205041765</v>
+        <v>0.2388643462048518</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>107040</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88180</v>
+        <v>88092</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>128916</v>
+        <v>126273</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09353318855550947</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07705293401895884</v>
+        <v>0.07697576888156735</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1126491751904689</v>
+        <v>0.1103397480592656</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -8771,19 +8771,19 @@
         <v>45959</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33471</v>
+        <v>35075</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61732</v>
+        <v>61530</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05581571113720457</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04065006264506064</v>
+        <v>0.04259786621981337</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07497170573818261</v>
+        <v>0.07472672641887051</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>147</v>
@@ -8792,19 +8792,19 @@
         <v>152999</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>127824</v>
+        <v>130858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>177189</v>
+        <v>178301</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07775082983903699</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06495770460525951</v>
+        <v>0.06649941590016942</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09004387162981956</v>
+        <v>0.09060874166571597</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>453861</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>420460</v>
+        <v>420128</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>485534</v>
+        <v>488204</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.396590743097864</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3674047822828421</v>
+        <v>0.3671145173111984</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4242674820576504</v>
+        <v>0.4266000459804236</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>171</v>
@@ -8842,19 +8842,19 @@
         <v>183988</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>159328</v>
+        <v>159493</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>210645</v>
+        <v>208515</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2234483881006469</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1934999184823629</v>
+        <v>0.1936995778795737</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2558229277583798</v>
+        <v>0.2532363369818474</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>611</v>
@@ -8863,19 +8863,19 @@
         <v>637849</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>595547</v>
+        <v>598101</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>678846</v>
+        <v>680655</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.324141710378228</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3026451120981047</v>
+        <v>0.3039425827404111</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3449757317446769</v>
+        <v>0.3458949197508898</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>49827</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37591</v>
+        <v>36442</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63897</v>
+        <v>63997</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0802740758676958</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06056186449139252</v>
+        <v>0.05871070693943014</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.102941777593441</v>
+        <v>0.1031037428969492</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>119</v>
@@ -8988,19 +8988,19 @@
         <v>126047</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>108944</v>
+        <v>104856</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>147821</v>
+        <v>147502</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1707386324963906</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1475722153589168</v>
+        <v>0.142034297490843</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2002338553675548</v>
+        <v>0.1998012455312177</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>166</v>
@@ -9009,19 +9009,19 @@
         <v>175873</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>152331</v>
+        <v>148592</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>201386</v>
+        <v>200953</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1294185825517522</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1120949507348769</v>
+        <v>0.1093430983740619</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1481924031616715</v>
+        <v>0.1478740371224756</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>94044</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77598</v>
+        <v>76994</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112879</v>
+        <v>111947</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1515117126149826</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1250150692995761</v>
+        <v>0.1240419557220373</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1818559647772531</v>
+        <v>0.1803539419263232</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>181</v>
@@ -9059,19 +9059,19 @@
         <v>190115</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>167072</v>
+        <v>165358</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>215760</v>
+        <v>213236</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2575237538292095</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2263098548916999</v>
+        <v>0.2239876969791969</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.29226154965764</v>
+        <v>0.2888418175874793</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>271</v>
@@ -9080,19 +9080,19 @@
         <v>284160</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>252269</v>
+        <v>255776</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>314034</v>
+        <v>316014</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2091023277928885</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1856351908732498</v>
+        <v>0.1882156994574545</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2310855462499017</v>
+        <v>0.2325426813215985</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>109020</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>90768</v>
+        <v>91670</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>130119</v>
+        <v>128979</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.175638746329813</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1462342532263302</v>
+        <v>0.1476873282890314</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2096299597866075</v>
+        <v>0.207794639963062</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>143</v>
@@ -9130,19 +9130,19 @@
         <v>148270</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>127899</v>
+        <v>127321</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>171483</v>
+        <v>173183</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2008417564386316</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1732470138923132</v>
+        <v>0.1724652370257498</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2322844877457232</v>
+        <v>0.2345881592143581</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>249</v>
@@ -9151,19 +9151,19 @@
         <v>257290</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>230952</v>
+        <v>228645</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>289236</v>
+        <v>287346</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.18933018024503</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.169948778879423</v>
+        <v>0.1682509255875712</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2128379702323948</v>
+        <v>0.2114470435623615</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>58128</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>43007</v>
+        <v>45410</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>72788</v>
+        <v>75083</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09364876317286996</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06928676508166191</v>
+        <v>0.07315848254770203</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1172671068822786</v>
+        <v>0.1209644279892764</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>47</v>
@@ -9201,19 +9201,19 @@
         <v>48156</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36038</v>
+        <v>36645</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>63360</v>
+        <v>63513</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06522979459989377</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04881526820613229</v>
+        <v>0.04963830736346912</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08582571935731717</v>
+        <v>0.08603293846126811</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>103</v>
@@ -9222,19 +9222,19 @@
         <v>106284</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>88059</v>
+        <v>86088</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>125473</v>
+        <v>126270</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07821027275146647</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06479926557691663</v>
+        <v>0.06334898355463535</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09233106129175984</v>
+        <v>0.09291719072455472</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>309687</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>281539</v>
+        <v>285887</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>331859</v>
+        <v>333424</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4989267020146386</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4535786628567802</v>
+        <v>0.4605835235309636</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5346482040514625</v>
+        <v>0.5371683656280303</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>209</v>
@@ -9272,19 +9272,19 @@
         <v>225656</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>201494</v>
+        <v>200765</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>249996</v>
+        <v>251116</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3056660626358745</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2729373137327973</v>
+        <v>0.271948732403865</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3386356738743058</v>
+        <v>0.3401530971358142</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>507</v>
@@ -9293,19 +9293,19 @@
         <v>535343</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>502439</v>
+        <v>500612</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>573168</v>
+        <v>573425</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3939386366588628</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.369725684060025</v>
+        <v>0.3683813907671063</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4217729518443643</v>
+        <v>0.4219619542648991</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>35861</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>25510</v>
+        <v>25770</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>47636</v>
+        <v>48910</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1263085619732486</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08984848966086159</v>
+        <v>0.09076465575397948</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1677798003851453</v>
+        <v>0.1722660453504033</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>145</v>
@@ -9418,19 +9418,19 @@
         <v>157050</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>134400</v>
+        <v>135246</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>180387</v>
+        <v>183339</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1456143546675699</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1246134806702923</v>
+        <v>0.1253975657051657</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1672519107247706</v>
+        <v>0.1699883709806841</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>179</v>
@@ -9439,19 +9439,19 @@
         <v>192912</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>167394</v>
+        <v>169596</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>221752</v>
+        <v>223612</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1415912604361634</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1228618827376003</v>
+        <v>0.1244784199614749</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1627594026645117</v>
+        <v>0.164124320120106</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>101597</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>85342</v>
+        <v>85206</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>117689</v>
+        <v>118765</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3578380304881681</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3005856531640795</v>
+        <v>0.3001074556162898</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4145165616970345</v>
+        <v>0.4183051352889809</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>261</v>
@@ -9489,19 +9489,19 @@
         <v>276520</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>248467</v>
+        <v>249433</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>310838</v>
+        <v>307153</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2563845378538147</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2303746766250126</v>
+        <v>0.2312700612559204</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2882040960319586</v>
+        <v>0.2847865414679262</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>356</v>
@@ -9510,19 +9510,19 @@
         <v>378117</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>345204</v>
+        <v>345991</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>415926</v>
+        <v>411633</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2775262214632823</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2533692454019951</v>
+        <v>0.2539466532785364</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3052770257996202</v>
+        <v>0.3021259574455946</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>70799</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57386</v>
+        <v>56867</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>84958</v>
+        <v>86327</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2493637220362682</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2021214231886372</v>
+        <v>0.2002921399214665</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2992336435810029</v>
+        <v>0.3040536806970272</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>218</v>
@@ -9560,19 +9560,19 @@
         <v>235004</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>205042</v>
+        <v>207401</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>263664</v>
+        <v>265291</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2178916930308517</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1901113374077108</v>
+        <v>0.1922988740632136</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2444649051272076</v>
+        <v>0.245973375451161</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>286</v>
@@ -9581,19 +9581,19 @@
         <v>305803</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>272473</v>
+        <v>276807</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>339503</v>
+        <v>341130</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2244500840975699</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1999864500127095</v>
+        <v>0.203167985052577</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2491850746991262</v>
+        <v>0.2503791183795983</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>10011</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5130</v>
+        <v>4816</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19369</v>
+        <v>18600</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03525921267233335</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01807012691327619</v>
+        <v>0.01696262233904915</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06822183844384827</v>
+        <v>0.06551266342504466</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -9631,19 +9631,19 @@
         <v>58849</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45012</v>
+        <v>45124</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>75067</v>
+        <v>73537</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05456398591542828</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0417340077434915</v>
+        <v>0.04183836466609693</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06960093541918662</v>
+        <v>0.0681821004118347</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>64</v>
@@ -9652,19 +9652,19 @@
         <v>68860</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>53406</v>
+        <v>54005</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>86936</v>
+        <v>86466</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05054110412535545</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03919833377117237</v>
+        <v>0.03963773040481382</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0638085886068834</v>
+        <v>0.0634634550680275</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>65651</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>52332</v>
+        <v>50831</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>81525</v>
+        <v>80425</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2312304728299817</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1843188276290595</v>
+        <v>0.1790323343207978</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2871415852268717</v>
+        <v>0.2832679776872898</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>310</v>
@@ -9702,19 +9702,19 @@
         <v>351112</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>318047</v>
+        <v>319466</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>385143</v>
+        <v>384544</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3255454285323354</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2948874368800726</v>
+        <v>0.2962038093758137</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3570976446364652</v>
+        <v>0.3565421236117627</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>373</v>
@@ -9723,19 +9723,19 @@
         <v>416763</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>383183</v>
+        <v>383492</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>454215</v>
+        <v>452984</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.305891329877629</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2812445386896955</v>
+        <v>0.2814711678539107</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3333798996425665</v>
+        <v>0.3324763513095885</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>348394</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>313287</v>
+        <v>313601</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>391245</v>
+        <v>387168</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1033054912432792</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.09289546913736882</v>
+        <v>0.09298871866759582</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1160116624585609</v>
+        <v>0.1148027964850368</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>589</v>
@@ -9848,19 +9848,19 @@
         <v>629205</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>584171</v>
+        <v>585072</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>675229</v>
+        <v>674535</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1785742041576305</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1657931600238038</v>
+        <v>0.1660486566121448</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1916360432326324</v>
+        <v>0.1914391776960737</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>907</v>
@@ -9869,19 +9869,19 @@
         <v>977599</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>920636</v>
+        <v>923969</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1040645</v>
+        <v>1039189</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1417640922415444</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1335036606028033</v>
+        <v>0.1339871106222997</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1509064640539719</v>
+        <v>0.1506953715977922</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>739348</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>690657</v>
+        <v>692047</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>788884</v>
+        <v>790067</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2192306951275036</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.204793022488651</v>
+        <v>0.2052050411346168</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2339190673874204</v>
+        <v>0.2342699783999087</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>985</v>
@@ -9919,19 +9919,19 @@
         <v>1018690</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>961800</v>
+        <v>964961</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1071044</v>
+        <v>1071829</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2891135853434724</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2729677469232746</v>
+        <v>0.2738646645274168</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.303971926320303</v>
+        <v>0.3041949812247924</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1687</v>
@@ -9940,19 +9940,19 @@
         <v>1758038</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1682206</v>
+        <v>1681873</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1834801</v>
+        <v>1826539</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2549374062875543</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2439408309543206</v>
+        <v>0.2438925665352642</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2660690100938642</v>
+        <v>0.2648709129218454</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>752627</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>700331</v>
+        <v>707714</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>802750</v>
+        <v>807445</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2231681779159651</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2076616163928963</v>
+        <v>0.2098506411246426</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2380306349341869</v>
+        <v>0.2394228637055684</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>703</v>
@@ -9990,19 +9990,19 @@
         <v>737326</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>687236</v>
+        <v>688954</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>787514</v>
+        <v>788026</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2092598221401319</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.19504383600392</v>
+        <v>0.1955315215964548</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.223503766863846</v>
+        <v>0.2236489612533787</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1427</v>
@@ -10011,19 +10011,19 @@
         <v>1489952</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1423988</v>
+        <v>1425251</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1570943</v>
+        <v>1565972</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2160616938987169</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2064960048203164</v>
+        <v>0.2066791433660244</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2278063745613691</v>
+        <v>0.2270854996024002</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>279126</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>246841</v>
+        <v>249540</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>313324</v>
+        <v>317494</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.08276614476302298</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07319294625499088</v>
+        <v>0.0739932394173128</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09290651882266117</v>
+        <v>0.09414316714795615</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>192</v>
@@ -10061,19 +10061,19 @@
         <v>200751</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>173837</v>
+        <v>175414</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>229994</v>
+        <v>226942</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05697483928378862</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04933640473646887</v>
+        <v>0.04978414585026559</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06527451613387365</v>
+        <v>0.06440830870283649</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>457</v>
@@ -10082,19 +10082,19 @@
         <v>479876</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>438217</v>
+        <v>438284</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>527073</v>
+        <v>524886</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.06958805936412781</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06354695117917022</v>
+        <v>0.06355666217619101</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0764321687982184</v>
+        <v>0.07611508243727359</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>1252970</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1199712</v>
+        <v>1193738</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1313675</v>
+        <v>1309586</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.371529490950229</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3557376700490223</v>
+        <v>0.3539662218402083</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3895298151155462</v>
+        <v>0.3883173399269561</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>850</v>
@@ -10132,19 +10132,19 @@
         <v>937523</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>875888</v>
+        <v>879373</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>993944</v>
+        <v>990912</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2660775490749766</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2485850176152108</v>
+        <v>0.2495741098188505</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2820902334670997</v>
+        <v>0.281229931999215</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2052</v>
@@ -10153,19 +10153,19 @@
         <v>2190492</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2113946</v>
+        <v>2112653</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2271573</v>
+        <v>2270089</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3176487482080567</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3065485213946849</v>
+        <v>0.3063610177406377</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3294063993023567</v>
+        <v>0.3291912220951035</v>
       </c>
     </row>
     <row r="45">
